--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_20_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418421.4923143772</v>
+        <v>325895.9947770069</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14760033.33055412</v>
+        <v>14803319.36208674</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6168938.449803911</v>
+        <v>6159726.182517771</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>49.79500702712463</v>
@@ -727,7 +727,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.848256208035284</v>
+        <v>1.848256208035277</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -761,52 +761,52 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
         <v>43.85944218949135</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -898,16 +898,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.575513926585702</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
     </row>
     <row r="6">
@@ -983,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="I6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>45.55266047403215</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2535302734783951</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>33.42924826805081</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>56.70400066026085</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>92.6649492891022</v>
+        <v>98.74883103803279</v>
       </c>
       <c r="I8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358037</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101605001</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>89.49227226221132</v>
       </c>
       <c r="Y9" t="n">
-        <v>74.80221533172566</v>
+        <v>112.1126601249237</v>
       </c>
     </row>
     <row r="10">
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H11" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>116.8405921356975</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>43.82583598832322</v>
       </c>
       <c r="E12" t="n">
-        <v>64.56684034165072</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409149</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1551,10 +1551,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>20.00402729331206</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>187.5255871663199</v>
       </c>
       <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>187.5255871663199</v>
@@ -1654,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666378</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>88.09081815943075</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1688,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1733,28 +1733,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.4328956284632</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="U15" t="n">
+      <c r="X15" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="V15" t="n">
-        <v>130.4949840230016</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0</v>
-      </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>179.9896253540987</v>
       </c>
     </row>
     <row r="16">
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>20.00402729331206</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402852</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709386</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>332.5765819343979</v>
+        <v>315.128434197946</v>
       </c>
       <c r="E17" t="n">
-        <v>377.5846752207061</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>377.5846752207061</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>377.5846752207061</v>
+        <v>80.70575850128597</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>49.34302280919576</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>315.128434197946</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1925,13 +1925,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>74.36760765544133</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1976,13 +1976,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>193.9911444653429</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8406162883283</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>81.40106945209949</v>
       </c>
     </row>
     <row r="19">
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>116.2172101344255</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>183.1243622883183</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>315.1284341979461</v>
       </c>
       <c r="E20" t="n">
-        <v>377.5846752207061</v>
+        <v>16.71125809071967</v>
       </c>
       <c r="F20" t="n">
-        <v>377.5846752207061</v>
+        <v>315.1284341979461</v>
       </c>
       <c r="G20" t="n">
-        <v>377.5846752207061</v>
+        <v>315.1284341979461</v>
       </c>
       <c r="H20" t="n">
-        <v>310.1579315126722</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>22.4186504217258</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>49.34302280919576</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -2207,28 +2207,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.58346658365895</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>143.2336289799616</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>55.99589963554513</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>8.815138003064309</v>
       </c>
     </row>
     <row r="22">
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7069037931486</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>95.94426898784599</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>183.1243622883183</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>219.6964128771406</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>217.9335812216251</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
@@ -2411,10 +2411,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>78.3467874804049</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>108.4346551911463</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.8205739680685</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>18.38112956226318</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>185.627950660891</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.1636065770829</v>
+        <v>26.2533380416766</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
-        <v>40.76585976997012</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2642,16 +2642,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470352</v>
+        <v>94.46000770477868</v>
       </c>
       <c r="H27" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2687,19 +2687,19 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>118.5303952683634</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2721,10 +2721,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>40.20690263795975</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>185.9158911817652</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>369.0708857814077</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>271.3837810272681</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>192.9854789330242</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>69.89880512722951</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2994,25 +2994,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>120.1155877132855</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>40.20690263795975</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>278.0528114489208</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>133.1881030898646</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3113,13 +3113,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3164,7 +3164,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>207.3141289873741</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>141.5144886459618</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>108.1452476224559</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>125.0721477169168</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>208.0359646099616</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>236.8361806368015</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3356,10 +3356,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>20.27697994470865</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3401,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>165.3461923380926</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>73.73431546344987</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>180.2959383279816</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>344.9664628576116</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.39506259572515</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -3596,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>88.37993586869823</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>40.26676001877886</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>192.7632183107638</v>
@@ -3641,13 +3641,13 @@
         <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>31.68046530976917</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.86760685771054</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3745,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>105.0430334365242</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>62.30269197369018</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3869,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>51.85254607929991</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>108.4346551911461</v>
       </c>
       <c r="U42" t="n">
         <v>225.8205739680685</v>
@@ -3906,10 +3906,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>104.3491676166102</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>56.37860488577132</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>221.0387055949722</v>
+        <v>294.9904352352735</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4061,16 +4061,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>80.81071583586791</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4106,10 +4106,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
-        <v>106.0588020198911</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
         <v>225.8205739680685</v>
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>86.31947454675934</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>177.1015133327004</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4366,16 +4366,16 @@
         <v>199.1800281084985</v>
       </c>
       <c r="V2" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="W2" t="n">
         <v>148.882041212413</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>98.58405431632752</v>
       </c>
-      <c r="X2" t="n">
-        <v>48.28606742024204</v>
-      </c>
       <c r="Y2" t="n">
-        <v>46.41914195758014</v>
+        <v>96.71712885366563</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="C3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I3" t="n">
-        <v>48.28606742024204</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J3" t="n">
         <v>3.98360056216997</v>
@@ -4418,10 +4418,10 @@
         <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
         <v>170.4401317516709</v>
@@ -4433,28 +4433,28 @@
         <v>199.1800281084985</v>
       </c>
       <c r="R3" t="n">
-        <v>199.1800281084985</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="S3" t="n">
-        <v>199.1800281084985</v>
+        <v>154.8775612504264</v>
       </c>
       <c r="T3" t="n">
-        <v>199.1800281084985</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="U3" t="n">
-        <v>148.882041212413</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="V3" t="n">
-        <v>148.882041212413</v>
+        <v>104.5795743543409</v>
       </c>
       <c r="W3" t="n">
-        <v>148.882041212413</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="X3" t="n">
-        <v>98.58405431632752</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="Y3" t="n">
-        <v>48.28606742024204</v>
+        <v>54.28158745825545</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4.160416961626754</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="C5" t="n">
-        <v>4.160416961626754</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D5" t="n">
-        <v>4.160416961626754</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="E5" t="n">
-        <v>4.160416961626754</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F5" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G5" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H5" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I5" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J5" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K5" t="n">
-        <v>4.160416961626754</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L5" t="n">
-        <v>21.96921792112715</v>
+        <v>75.16870670940374</v>
       </c>
       <c r="M5" t="n">
-        <v>73.45437782125822</v>
+        <v>166.9070065056149</v>
       </c>
       <c r="N5" t="n">
-        <v>124.9395377213893</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O5" t="n">
-        <v>165.3635987672722</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q5" t="n">
-        <v>161.7519685383978</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R5" t="n">
-        <v>109.2214513461408</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S5" t="n">
-        <v>56.69093415388375</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T5" t="n">
-        <v>4.160416961626754</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U5" t="n">
-        <v>4.160416961626754</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V5" t="n">
-        <v>4.160416961626754</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W5" t="n">
-        <v>4.160416961626754</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="X5" t="n">
-        <v>4.160416961626754</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.160416961626754</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.703722511492</v>
+        <v>322.4052647739103</v>
       </c>
       <c r="C6" t="n">
-        <v>102.703722511492</v>
+        <v>322.4052647739103</v>
       </c>
       <c r="D6" t="n">
-        <v>102.703722511492</v>
+        <v>322.4052647739103</v>
       </c>
       <c r="E6" t="n">
-        <v>102.703722511492</v>
+        <v>228.8043058960293</v>
       </c>
       <c r="F6" t="n">
-        <v>102.703722511492</v>
+        <v>228.8043058960293</v>
       </c>
       <c r="G6" t="n">
-        <v>102.703722511492</v>
+        <v>135.2033470181483</v>
       </c>
       <c r="H6" t="n">
-        <v>102.703722511492</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="I6" t="n">
-        <v>50.17320531923499</v>
+        <v>41.60238814026729</v>
       </c>
       <c r="J6" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K6" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L6" t="n">
-        <v>51.93063343081674</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M6" t="n">
-        <v>103.4157933309478</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N6" t="n">
-        <v>154.9009532310789</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O6" t="n">
-        <v>178.0077694636781</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P6" t="n">
-        <v>208.0208480813377</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>207.764756896006</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="R6" t="n">
-        <v>155.234239703749</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="S6" t="n">
-        <v>102.703722511492</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="T6" t="n">
-        <v>102.703722511492</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="U6" t="n">
-        <v>102.703722511492</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="V6" t="n">
-        <v>102.703722511492</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="W6" t="n">
-        <v>102.703722511492</v>
+        <v>356.1721822163859</v>
       </c>
       <c r="X6" t="n">
-        <v>102.703722511492</v>
+        <v>322.4052647739103</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.703722511492</v>
+        <v>322.4052647739103</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>370.6597971564088</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="C8" t="n">
-        <v>370.6597971564088</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="D8" t="n">
-        <v>370.6597971564088</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="E8" t="n">
-        <v>370.6597971564088</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="F8" t="n">
-        <v>313.383028812711</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="G8" t="n">
-        <v>219.78206993483</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="H8" t="n">
-        <v>126.181111056949</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I8" t="n">
-        <v>32.58015217906794</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J8" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821451</v>
+        <v>32.11753523687554</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940366</v>
+        <v>97.73708609773416</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056148</v>
+        <v>202.4209174083931</v>
       </c>
       <c r="N8" t="n">
-        <v>258.6453063018261</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O8" t="n">
-        <v>337.6943058037292</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U8" t="n">
-        <v>370.6597971564088</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="V8" t="n">
-        <v>370.6597971564088</v>
+        <v>221.9604180251015</v>
       </c>
       <c r="W8" t="n">
-        <v>370.6597971564088</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="X8" t="n">
-        <v>370.6597971564088</v>
+        <v>108.7153067878048</v>
       </c>
       <c r="Y8" t="n">
-        <v>370.6597971564088</v>
+        <v>108.7153067878048</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>295.1020038920394</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="C9" t="n">
-        <v>295.1020038920394</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D9" t="n">
-        <v>295.1020038920394</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E9" t="n">
-        <v>295.1020038920394</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F9" t="n">
-        <v>295.1020038920394</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G9" t="n">
-        <v>201.5010450141584</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H9" t="n">
-        <v>107.9000861362774</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I9" t="n">
-        <v>41.60238814026729</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J9" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K9" t="n">
-        <v>28.29609765201163</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L9" t="n">
-        <v>102.6982772648967</v>
+        <v>91.93611230387164</v>
       </c>
       <c r="M9" t="n">
-        <v>134.8197310560413</v>
+        <v>202.9276458275461</v>
       </c>
       <c r="N9" t="n">
-        <v>226.5580308522524</v>
+        <v>313.9191793512206</v>
       </c>
       <c r="O9" t="n">
-        <v>317.2247932514005</v>
+        <v>413.9712807824706</v>
       </c>
       <c r="P9" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="T9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="U9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="V9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="W9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="X9" t="n">
-        <v>370.6597971564088</v>
+        <v>348.704346521884</v>
       </c>
       <c r="Y9" t="n">
-        <v>295.1020038920394</v>
+        <v>235.4592352845873</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="V10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="W10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="D11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="E11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="F11" t="n">
-        <v>322.4426321268585</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="G11" t="n">
-        <v>322.4426321268585</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H11" t="n">
-        <v>133.0228471103738</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I11" t="n">
         <v>15.00204697330559</v>
@@ -5056,7 +5056,7 @@
         <v>509.4952041123826</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985581</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P11" t="n">
         <v>734.4611726020263</v>
@@ -5065,28 +5065,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R11" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S11" t="n">
-        <v>511.8624171433432</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T11" t="n">
-        <v>322.4426321268585</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="U11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="V11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="W11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y11" t="n">
-        <v>322.4426321268585</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C12" t="n">
-        <v>525.654732181024</v>
+        <v>196.8097493511829</v>
       </c>
       <c r="D12" t="n">
-        <v>525.654732181024</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E12" t="n">
-        <v>460.4357015328919</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F12" t="n">
-        <v>313.9011435597769</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G12" t="n">
-        <v>176.361962382226</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H12" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I12" t="n">
         <v>15.00204697330559</v>
@@ -5129,13 +5129,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546599</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476346</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P12" t="n">
         <v>739.598998701706</v>
@@ -5144,28 +5144,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R12" t="n">
-        <v>676.9378076264277</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S12" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T12" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U12" t="n">
-        <v>525.654732181024</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V12" t="n">
-        <v>525.654732181024</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W12" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X12" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
       <c r="Y12" t="n">
-        <v>525.654732181024</v>
+        <v>371.26277863231</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C13" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D13" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E13" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F13" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G13" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H13" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I13" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J13" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K13" t="n">
         <v>15.00204697330559</v>
@@ -5217,34 +5217,34 @@
         <v>67.74542702828987</v>
       </c>
       <c r="P13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y13" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="C14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="D14" t="n">
-        <v>393.841617006275</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="E14" t="n">
-        <v>204.4218319897903</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="F14" t="n">
         <v>204.4218319897903</v>
@@ -5278,7 +5278,7 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K14" t="n">
         <v>80.81213159058939</v>
@@ -5287,43 +5287,43 @@
         <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O14" t="n">
         <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020263</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R14" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S14" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="U14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="W14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="X14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="Y14" t="n">
-        <v>583.2614020227597</v>
+        <v>583.2614020227599</v>
       </c>
     </row>
     <row r="15">
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.00204697330559</v>
+        <v>189.4550762544326</v>
       </c>
       <c r="C15" t="n">
         <v>15.00204697330559</v>
@@ -5357,52 +5357,52 @@
         <v>15.00204697330559</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733055</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024213</v>
+        <v>67.13418877024205</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772648</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546601</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017063</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652797</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R15" t="n">
-        <v>676.9378076264279</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S15" t="n">
-        <v>525.6547321810242</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T15" t="n">
-        <v>336.2349471645394</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U15" t="n">
-        <v>146.8151621480547</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="V15" t="n">
-        <v>15.00204697330559</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="W15" t="n">
-        <v>15.00204697330559</v>
+        <v>560.6825636487948</v>
       </c>
       <c r="X15" t="n">
-        <v>15.00204697330559</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.00204697330559</v>
+        <v>189.4550762544326</v>
       </c>
     </row>
     <row r="16">
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>29.24882464404147</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
         <v>15.00204697330559</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230175</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M16" t="n">
         <v>42.98993985170716</v>
@@ -5454,34 +5454,34 @@
         <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>49.45491281910415</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y16" t="n">
-        <v>49.45491281910415</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1510.338700882824</v>
+        <v>425.0427926138478</v>
       </c>
       <c r="C17" t="n">
-        <v>1510.338700882824</v>
+        <v>425.0427926138478</v>
       </c>
       <c r="D17" t="n">
-        <v>1174.402759534948</v>
+        <v>106.7312429189528</v>
       </c>
       <c r="E17" t="n">
-        <v>793.0040976958506</v>
+        <v>106.7312429189528</v>
       </c>
       <c r="F17" t="n">
-        <v>411.6054358567536</v>
+        <v>106.7312429189528</v>
       </c>
       <c r="G17" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="H17" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="I17" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="J17" t="n">
-        <v>91.50353103944059</v>
+        <v>68.34610104031901</v>
       </c>
       <c r="K17" t="n">
-        <v>234.1099985160072</v>
+        <v>183.7340411072821</v>
       </c>
       <c r="L17" t="n">
-        <v>447.9276934050737</v>
+        <v>363.7847459179035</v>
       </c>
       <c r="M17" t="n">
-        <v>717.5105146724399</v>
+        <v>595.7952845205559</v>
       </c>
       <c r="N17" t="n">
-        <v>996.0692762069074</v>
+        <v>836.1738045761828</v>
       </c>
       <c r="O17" t="n">
-        <v>1245.769154479951</v>
+        <v>1049.82116348494</v>
       </c>
       <c r="P17" t="n">
-        <v>1424.381222716182</v>
+        <v>1197.663240548268</v>
       </c>
       <c r="Q17" t="n">
-        <v>1510.338700882824</v>
+        <v>1260.513736791784</v>
       </c>
       <c r="R17" t="n">
-        <v>1510.338700882824</v>
+        <v>1210.672299610778</v>
       </c>
       <c r="S17" t="n">
-        <v>1510.338700882824</v>
+        <v>1210.672299610778</v>
       </c>
       <c r="T17" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980152</v>
       </c>
       <c r="U17" t="n">
-        <v>1510.338700882824</v>
+        <v>743.3543423087428</v>
       </c>
       <c r="V17" t="n">
-        <v>1510.338700882824</v>
+        <v>425.0427926138478</v>
       </c>
       <c r="W17" t="n">
-        <v>1510.338700882824</v>
+        <v>425.0427926138478</v>
       </c>
       <c r="X17" t="n">
-        <v>1510.338700882824</v>
+        <v>425.0427926138478</v>
       </c>
       <c r="Y17" t="n">
-        <v>1510.338700882824</v>
+        <v>425.0427926138478</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>279.7785989103404</v>
+        <v>184.4477297412912</v>
       </c>
       <c r="C18" t="n">
-        <v>105.3255696292134</v>
+        <v>184.4477297412912</v>
       </c>
       <c r="D18" t="n">
-        <v>30.20677401765649</v>
+        <v>184.4477297412912</v>
       </c>
       <c r="E18" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="F18" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="G18" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="H18" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="I18" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="J18" t="n">
-        <v>47.89685561801382</v>
+        <v>32.08383041579935</v>
       </c>
       <c r="K18" t="n">
-        <v>156.2868474326907</v>
+        <v>121.9866566016228</v>
       </c>
       <c r="L18" t="n">
-        <v>348.3531087384705</v>
+        <v>289.1946422614675</v>
       </c>
       <c r="M18" t="n">
-        <v>591.8422446742945</v>
+        <v>503.6753430076002</v>
       </c>
       <c r="N18" t="n">
-        <v>856.1844584295509</v>
+        <v>738.2413546109869</v>
       </c>
       <c r="O18" t="n">
-        <v>1075.786145373582</v>
+        <v>930.6036338393324</v>
       </c>
       <c r="P18" t="n">
-        <v>1232.702793329601</v>
+        <v>1065.658255634908</v>
       </c>
       <c r="Q18" t="n">
-        <v>1287.678220510664</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="R18" t="n">
-        <v>1287.678220510664</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="S18" t="n">
-        <v>1287.678220510664</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="T18" t="n">
-        <v>1091.72756953557</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="U18" t="n">
-        <v>863.6057349008952</v>
+        <v>877.8899776755029</v>
       </c>
       <c r="V18" t="n">
-        <v>863.6057349008952</v>
+        <v>642.7378694437602</v>
       </c>
       <c r="W18" t="n">
-        <v>863.6057349008952</v>
+        <v>642.7378694437602</v>
       </c>
       <c r="X18" t="n">
-        <v>655.7542346953624</v>
+        <v>434.8863692382274</v>
       </c>
       <c r="Y18" t="n">
-        <v>447.9939359304084</v>
+        <v>352.6630667613592</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="C19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="D19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="E19" t="n">
-        <v>147.597895365561</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="F19" t="n">
-        <v>147.597895365561</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="G19" t="n">
-        <v>147.597895365561</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="H19" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="I19" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="J19" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="K19" t="n">
-        <v>50.17801995079941</v>
+        <v>34.03013544641117</v>
       </c>
       <c r="L19" t="n">
-        <v>105.6401365881127</v>
+        <v>75.22231828639516</v>
       </c>
       <c r="M19" t="n">
-        <v>167.3754452337693</v>
+        <v>121.9119825351245</v>
       </c>
       <c r="N19" t="n">
-        <v>235.5003521309797</v>
+        <v>175.3489968304978</v>
       </c>
       <c r="O19" t="n">
-        <v>278.1116410686348</v>
+        <v>204.3936396460497</v>
       </c>
       <c r="P19" t="n">
-        <v>295.5109889479542</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="Q19" t="n">
-        <v>295.5109889479542</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="R19" t="n">
-        <v>295.5109889479542</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="S19" t="n">
-        <v>295.5109889479542</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="T19" t="n">
-        <v>295.5109889479542</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="U19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="V19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="W19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="X19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
       <c r="Y19" t="n">
-        <v>295.5109889479542</v>
+        <v>25.21027473583568</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
       <c r="C20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
       <c r="D20" t="n">
-        <v>1510.338700882824</v>
+        <v>678.7134328031204</v>
       </c>
       <c r="E20" t="n">
-        <v>1128.940039043727</v>
+        <v>661.8333741256258</v>
       </c>
       <c r="F20" t="n">
-        <v>747.5413772046304</v>
+        <v>343.5218244307308</v>
       </c>
       <c r="G20" t="n">
-        <v>366.1427153655333</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="H20" t="n">
-        <v>52.85187545374316</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="I20" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="J20" t="n">
-        <v>91.5035310394403</v>
+        <v>68.34610104031901</v>
       </c>
       <c r="K20" t="n">
-        <v>234.1099985160067</v>
+        <v>183.734041107282</v>
       </c>
       <c r="L20" t="n">
-        <v>447.9276934050733</v>
+        <v>363.784745917904</v>
       </c>
       <c r="M20" t="n">
-        <v>717.5105146724394</v>
+        <v>595.7952845205566</v>
       </c>
       <c r="N20" t="n">
-        <v>996.0692762069067</v>
+        <v>836.1738045761831</v>
       </c>
       <c r="O20" t="n">
-        <v>1245.769154479951</v>
+        <v>1049.82116348494</v>
       </c>
       <c r="P20" t="n">
-        <v>1424.381222716182</v>
+        <v>1197.663240548268</v>
       </c>
       <c r="Q20" t="n">
-        <v>1510.338700882824</v>
+        <v>1260.513736791784</v>
       </c>
       <c r="R20" t="n">
-        <v>1510.338700882824</v>
+        <v>1210.672299610779</v>
       </c>
       <c r="S20" t="n">
-        <v>1510.338700882824</v>
+        <v>1210.672299610779</v>
       </c>
       <c r="T20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
       <c r="U20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
       <c r="V20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
       <c r="W20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
       <c r="X20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
       <c r="Y20" t="n">
-        <v>1510.338700882824</v>
+        <v>997.0249824980154</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>659.3662259386053</v>
+        <v>171.7448327089507</v>
       </c>
       <c r="C21" t="n">
-        <v>484.9131966574783</v>
+        <v>171.7448327089507</v>
       </c>
       <c r="D21" t="n">
-        <v>335.978786996227</v>
+        <v>171.7448327089507</v>
       </c>
       <c r="E21" t="n">
-        <v>176.7413319907715</v>
+        <v>171.7448327089507</v>
       </c>
       <c r="F21" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="G21" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="H21" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="I21" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="J21" t="n">
-        <v>47.89685561801379</v>
+        <v>32.08383041579935</v>
       </c>
       <c r="K21" t="n">
-        <v>156.2868474326906</v>
+        <v>121.9866566016228</v>
       </c>
       <c r="L21" t="n">
-        <v>348.3531087384704</v>
+        <v>289.1946422614675</v>
       </c>
       <c r="M21" t="n">
-        <v>591.8422446742944</v>
+        <v>503.6753430076002</v>
       </c>
       <c r="N21" t="n">
-        <v>856.1844584295507</v>
+        <v>738.2413546109869</v>
       </c>
       <c r="O21" t="n">
-        <v>1075.786145373582</v>
+        <v>930.6036338393324</v>
       </c>
       <c r="P21" t="n">
-        <v>1232.702793329601</v>
+        <v>1065.658255634908</v>
       </c>
       <c r="Q21" t="n">
-        <v>1287.678220510664</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="R21" t="n">
-        <v>1236.583809820099</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="S21" t="n">
-        <v>1091.903376507006</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="T21" t="n">
-        <v>1091.903376507006</v>
+        <v>1106.019497291291</v>
       </c>
       <c r="U21" t="n">
-        <v>1091.903376507006</v>
+        <v>877.8899776755029</v>
       </c>
       <c r="V21" t="n">
-        <v>1091.903376507006</v>
+        <v>642.7378694437602</v>
       </c>
       <c r="W21" t="n">
-        <v>1091.903376507006</v>
+        <v>388.5005127155586</v>
       </c>
       <c r="X21" t="n">
-        <v>1035.341861723627</v>
+        <v>180.6490125100258</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.5815629586734</v>
+        <v>171.7448327089507</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="C22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="D22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="E22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="F22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="G22" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="H22" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="I22" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="J22" t="n">
-        <v>30.20677401765649</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="K22" t="n">
-        <v>50.17801995079938</v>
+        <v>34.03013544641117</v>
       </c>
       <c r="L22" t="n">
-        <v>105.6401365881126</v>
+        <v>75.22231828639516</v>
       </c>
       <c r="M22" t="n">
-        <v>167.3754452337692</v>
+        <v>121.9119825351245</v>
       </c>
       <c r="N22" t="n">
-        <v>235.5003521309796</v>
+        <v>175.3489968304978</v>
       </c>
       <c r="O22" t="n">
-        <v>278.1116410686347</v>
+        <v>204.3936396460497</v>
       </c>
       <c r="P22" t="n">
-        <v>295.5109889479541</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="Q22" t="n">
-        <v>295.5109889479541</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="R22" t="n">
-        <v>295.5109889479541</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="S22" t="n">
-        <v>295.5109889479541</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="T22" t="n">
-        <v>295.5109889479541</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="U22" t="n">
-        <v>295.5109889479541</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="V22" t="n">
-        <v>198.5975859299278</v>
+        <v>210.1843780573693</v>
       </c>
       <c r="W22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="X22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
       <c r="Y22" t="n">
-        <v>198.5975859299278</v>
+        <v>25.21027473583569</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>798.1199660767491</v>
+        <v>634.2472820412731</v>
       </c>
       <c r="C23" t="n">
-        <v>429.1574491363374</v>
+        <v>265.2847651008614</v>
       </c>
       <c r="D23" t="n">
-        <v>429.1574491363374</v>
+        <v>265.2847651008614</v>
       </c>
       <c r="E23" t="n">
-        <v>43.36919653809313</v>
+        <v>265.2847651008614</v>
       </c>
       <c r="F23" t="n">
-        <v>43.36919653809313</v>
+        <v>265.2847651008614</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I23" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711879</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M23" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N23" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O23" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904656</v>
+        <v>2168.459826904655</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904656</v>
+        <v>1958.28582905657</v>
       </c>
       <c r="U23" t="n">
-        <v>2168.459826904656</v>
+        <v>1704.67866471908</v>
       </c>
       <c r="V23" t="n">
-        <v>1948.324896377762</v>
+        <v>1373.615777375509</v>
       </c>
       <c r="W23" t="n">
-        <v>1948.324896377762</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="X23" t="n">
-        <v>1574.859138116683</v>
+        <v>1020.847122105395</v>
       </c>
       <c r="Y23" t="n">
-        <v>1184.719806140871</v>
+        <v>1020.847122105395</v>
       </c>
     </row>
     <row r="24">
@@ -6044,40 +6044,40 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>523.5942387977907</v>
+        <v>672.6691552812078</v>
       </c>
       <c r="C24" t="n">
-        <v>349.1412095166637</v>
+        <v>672.6691552812078</v>
       </c>
       <c r="D24" t="n">
-        <v>349.1412095166637</v>
+        <v>523.7347456199566</v>
       </c>
       <c r="E24" t="n">
-        <v>189.9037545112081</v>
+        <v>364.4972906145011</v>
       </c>
       <c r="F24" t="n">
-        <v>43.36919653809313</v>
+        <v>217.9627326413861</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809313</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I24" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562335</v>
       </c>
       <c r="K24" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L24" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M24" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N24" t="n">
         <v>1166.885386873582</v>
@@ -6098,22 +6098,22 @@
         <v>1766.227047333489</v>
       </c>
       <c r="T24" t="n">
-        <v>1656.697092594957</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="U24" t="n">
-        <v>1428.595502728222</v>
+        <v>1538.125457466753</v>
       </c>
       <c r="V24" t="n">
-        <v>1193.443394496479</v>
+        <v>1302.97334923501</v>
       </c>
       <c r="W24" t="n">
-        <v>939.2060377682774</v>
+        <v>1048.735992506809</v>
       </c>
       <c r="X24" t="n">
-        <v>731.3545375627446</v>
+        <v>840.8844923012759</v>
       </c>
       <c r="Y24" t="n">
-        <v>523.5942387977907</v>
+        <v>840.8844923012759</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="C25" t="n">
-        <v>43.36919653809313</v>
+        <v>61.93599407573268</v>
       </c>
       <c r="D25" t="n">
-        <v>43.36919653809313</v>
+        <v>61.93599407573268</v>
       </c>
       <c r="E25" t="n">
-        <v>43.36919653809313</v>
+        <v>61.93599407573268</v>
       </c>
       <c r="F25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="G25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="H25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="I25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36919653809313</v>
+        <v>43.3691965380931</v>
       </c>
       <c r="K25" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L25" t="n">
         <v>185.7706748018945</v>
@@ -6177,22 +6177,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T25" t="n">
-        <v>332.7863665750538</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U25" t="n">
-        <v>332.7863665750538</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V25" t="n">
-        <v>332.7863665750538</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W25" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="X25" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
     </row>
     <row r="26">
@@ -6202,49 +6202,49 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1231.542445274613</v>
+        <v>854.8812820495184</v>
       </c>
       <c r="C26" t="n">
-        <v>1231.542445274613</v>
+        <v>485.9187651091067</v>
       </c>
       <c r="D26" t="n">
-        <v>1231.542445274613</v>
+        <v>485.9187651091067</v>
       </c>
       <c r="E26" t="n">
-        <v>845.7541926763687</v>
+        <v>485.9187651091067</v>
       </c>
       <c r="F26" t="n">
-        <v>845.7541926763687</v>
+        <v>485.9187651091067</v>
       </c>
       <c r="G26" t="n">
-        <v>429.7231473797759</v>
+        <v>69.88771981251392</v>
       </c>
       <c r="H26" t="n">
-        <v>122.3223344947425</v>
+        <v>69.88771981251392</v>
       </c>
       <c r="I26" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J26" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K26" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L26" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M26" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N26" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O26" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P26" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q26" t="n">
         <v>2168.459826904656</v>
@@ -6253,25 +6253,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S26" t="n">
-        <v>2036.325171642787</v>
+        <v>2036.325171642786</v>
       </c>
       <c r="T26" t="n">
-        <v>1995.147535511504</v>
+        <v>1826.151173794702</v>
       </c>
       <c r="U26" t="n">
-        <v>1995.147535511504</v>
+        <v>1572.544009457211</v>
       </c>
       <c r="V26" t="n">
-        <v>1995.147535511504</v>
+        <v>1241.48112211364</v>
       </c>
       <c r="W26" t="n">
-        <v>1995.147535511504</v>
+        <v>1241.48112211364</v>
       </c>
       <c r="X26" t="n">
-        <v>1621.681777250425</v>
+        <v>1241.48112211364</v>
       </c>
       <c r="Y26" t="n">
-        <v>1231.542445274613</v>
+        <v>1241.48112211364</v>
       </c>
     </row>
     <row r="27">
@@ -6281,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>904.8600091750928</v>
+        <v>462.1707846772176</v>
       </c>
       <c r="C27" t="n">
-        <v>730.4069798939659</v>
+        <v>287.7177553960905</v>
       </c>
       <c r="D27" t="n">
-        <v>581.4725702327146</v>
+        <v>138.7833457348393</v>
       </c>
       <c r="E27" t="n">
-        <v>422.235115227259</v>
+        <v>138.7833457348393</v>
       </c>
       <c r="F27" t="n">
-        <v>275.700557254144</v>
+        <v>138.7833457348393</v>
       </c>
       <c r="G27" t="n">
-        <v>138.8245634692599</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H27" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I27" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J27" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K27" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L27" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M27" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N27" t="n">
         <v>1166.885386873582</v>
@@ -6329,28 +6329,28 @@
         <v>1766.227047333489</v>
       </c>
       <c r="R27" t="n">
-        <v>1734.238298972667</v>
+        <v>1734.238298972666</v>
       </c>
       <c r="S27" t="n">
-        <v>1595.273638474385</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="T27" t="n">
-        <v>1400.563316948361</v>
+        <v>1595.273638474384</v>
       </c>
       <c r="U27" t="n">
-        <v>1280.835644960115</v>
+        <v>1367.172048607649</v>
       </c>
       <c r="V27" t="n">
-        <v>1280.835644960115</v>
+        <v>1132.019940375906</v>
       </c>
       <c r="W27" t="n">
-        <v>1280.835644960115</v>
+        <v>877.7825836477043</v>
       </c>
       <c r="X27" t="n">
-        <v>1280.835644960115</v>
+        <v>669.9310834421715</v>
       </c>
       <c r="Y27" t="n">
-        <v>1073.075346195161</v>
+        <v>462.1707846772176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="C28" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="D28" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="E28" t="n">
-        <v>43.36919653809313</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J28" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K28" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L28" t="n">
         <v>185.7706748018945</v>
@@ -6414,22 +6414,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T28" t="n">
-        <v>332.4955175640696</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U28" t="n">
-        <v>43.36919653809313</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V28" t="n">
-        <v>43.36919653809313</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W28" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="X28" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.36919653809313</v>
+        <v>230.8721770036396</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1450.797099496963</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="C29" t="n">
-        <v>1081.834582556551</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="D29" t="n">
-        <v>723.5688839498009</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="E29" t="n">
-        <v>723.5688839498009</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F29" t="n">
-        <v>723.5688839498009</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G29" t="n">
-        <v>350.7700094231265</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809311</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I29" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J29" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K29" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711879</v>
       </c>
       <c r="M29" t="n">
         <v>1038.148464578731</v>
       </c>
       <c r="N29" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O29" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P29" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q29" t="n">
         <v>2168.459826904656</v>
@@ -6490,25 +6490,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S29" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="T29" t="n">
-        <v>2168.459826904656</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U29" t="n">
-        <v>2168.459826904656</v>
+        <v>1572.544009457212</v>
       </c>
       <c r="V29" t="n">
-        <v>1837.396939561085</v>
+        <v>1572.544009457212</v>
       </c>
       <c r="W29" t="n">
-        <v>1837.396939561085</v>
+        <v>1298.418978116537</v>
       </c>
       <c r="X29" t="n">
-        <v>1837.396939561085</v>
+        <v>924.9532198554571</v>
       </c>
       <c r="Y29" t="n">
-        <v>1837.396939561085</v>
+        <v>924.9532198554571</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>498.0756191779149</v>
+        <v>503.6326292653555</v>
       </c>
       <c r="C30" t="n">
-        <v>498.0756191779149</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D30" t="n">
-        <v>349.1412095166637</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E30" t="n">
-        <v>189.9037545112081</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809311</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I30" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J30" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562338</v>
       </c>
       <c r="K30" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L30" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M30" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789498</v>
       </c>
       <c r="N30" t="n">
         <v>1166.885386873582</v>
@@ -6569,25 +6569,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S30" t="n">
-        <v>1766.227047333489</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T30" t="n">
-        <v>1766.227047333489</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U30" t="n">
-        <v>1571.292220128414</v>
+        <v>1204.450475442447</v>
       </c>
       <c r="V30" t="n">
-        <v>1336.140111896671</v>
+        <v>1133.845621778579</v>
       </c>
       <c r="W30" t="n">
-        <v>1081.90275516847</v>
+        <v>879.6082650503774</v>
       </c>
       <c r="X30" t="n">
-        <v>874.0512549629368</v>
+        <v>879.6082650503774</v>
       </c>
       <c r="Y30" t="n">
-        <v>666.290956197983</v>
+        <v>671.8479662854236</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1691.539676402149</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="C31" t="n">
-        <v>1691.539676402149</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="D31" t="n">
-        <v>1691.539676402149</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="E31" t="n">
-        <v>1691.539676402149</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J31" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K31" t="n">
-        <v>1740.887338843871</v>
+        <v>92.71685897981544</v>
       </c>
       <c r="L31" t="n">
-        <v>1833.94115466595</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M31" t="n">
-        <v>1935.311639356789</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N31" t="n">
-        <v>2042.129286401802</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O31" t="n">
-        <v>2120.479583467422</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P31" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q31" t="n">
-        <v>2145.636906415509</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R31" t="n">
-        <v>2036.472410187591</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S31" t="n">
-        <v>1915.143533709525</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T31" t="n">
-        <v>1691.539676402149</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U31" t="n">
-        <v>1691.539676402149</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V31" t="n">
-        <v>1691.539676402149</v>
+        <v>479.6763140729641</v>
       </c>
       <c r="W31" t="n">
-        <v>1691.539676402149</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="X31" t="n">
-        <v>1691.539676402149</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="Y31" t="n">
-        <v>1691.539676402149</v>
+        <v>190.2591440360035</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>454.3551013277007</v>
+        <v>1151.247572330274</v>
       </c>
       <c r="C32" t="n">
-        <v>454.3551013277007</v>
+        <v>1151.247572330274</v>
       </c>
       <c r="D32" t="n">
-        <v>454.3551013277007</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="E32" t="n">
-        <v>454.3551013277007</v>
+        <v>870.3861466242935</v>
       </c>
       <c r="F32" t="n">
-        <v>43.36919653809311</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G32" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H32" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I32" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232732</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711883</v>
       </c>
       <c r="M32" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N32" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O32" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P32" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q32" t="n">
         <v>2168.459826904656</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S32" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T32" t="n">
-        <v>2036.325171642786</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U32" t="n">
-        <v>1901.791734178277</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="V32" t="n">
-        <v>1570.728846834706</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="W32" t="n">
-        <v>1217.960191564592</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="X32" t="n">
-        <v>844.4944333035123</v>
+        <v>1541.386904306086</v>
       </c>
       <c r="Y32" t="n">
-        <v>454.3551013277007</v>
+        <v>1151.247572330274</v>
       </c>
     </row>
     <row r="33">
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>525.9940904859269</v>
+        <v>364.3567837923351</v>
       </c>
       <c r="C33" t="n">
-        <v>351.5410612047999</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="D33" t="n">
-        <v>202.6066515435486</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="E33" t="n">
-        <v>43.36919653809311</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I33" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J33" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562338</v>
       </c>
       <c r="K33" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L33" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M33" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789498</v>
       </c>
       <c r="N33" t="n">
         <v>1166.885386873582</v>
@@ -6812,19 +6812,19 @@
         <v>1432.552065309183</v>
       </c>
       <c r="U33" t="n">
-        <v>1223.143854210825</v>
+        <v>1204.450475442447</v>
       </c>
       <c r="V33" t="n">
-        <v>987.9917459790825</v>
+        <v>969.2983672107046</v>
       </c>
       <c r="W33" t="n">
-        <v>733.7543892508809</v>
+        <v>715.061010482503</v>
       </c>
       <c r="X33" t="n">
-        <v>733.7543892508809</v>
+        <v>572.117082557289</v>
       </c>
       <c r="Y33" t="n">
-        <v>525.9940904859269</v>
+        <v>364.3567837923351</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1986.811362074416</v>
+        <v>299.4967678970701</v>
       </c>
       <c r="C34" t="n">
-        <v>1817.875179146509</v>
+        <v>299.4967678970701</v>
       </c>
       <c r="D34" t="n">
-        <v>1817.875179146509</v>
+        <v>299.4967678970701</v>
       </c>
       <c r="E34" t="n">
-        <v>1817.875179146509</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F34" t="n">
-        <v>1817.875179146509</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G34" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H34" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I34" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J34" t="n">
-        <v>1691.539676402149</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K34" t="n">
-        <v>1740.887338843871</v>
+        <v>92.71685897981544</v>
       </c>
       <c r="L34" t="n">
-        <v>1833.94115466595</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M34" t="n">
-        <v>1935.311639356789</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.129286401802</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O34" t="n">
-        <v>2120.479583467422</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X34" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y34" t="n">
-        <v>2168.459826904656</v>
+        <v>299.4967678970701</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1391.720654864723</v>
+        <v>823.3176182681125</v>
       </c>
       <c r="C35" t="n">
-        <v>1022.758137924311</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="D35" t="n">
-        <v>664.4924393175609</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="E35" t="n">
-        <v>664.4924393175609</v>
+        <v>454.3551013277007</v>
       </c>
       <c r="F35" t="n">
-        <v>253.5065345279533</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G35" t="n">
-        <v>253.5065345279533</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H35" t="n">
         <v>43.36919653809313</v>
@@ -6964,25 +6964,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S35" t="n">
-        <v>2168.459826904656</v>
+        <v>2036.325171642787</v>
       </c>
       <c r="T35" t="n">
-        <v>2168.459826904656</v>
+        <v>1826.151173794703</v>
       </c>
       <c r="U35" t="n">
-        <v>2168.459826904656</v>
+        <v>1586.922708505004</v>
       </c>
       <c r="V35" t="n">
-        <v>2168.459826904656</v>
+        <v>1586.922708505004</v>
       </c>
       <c r="W35" t="n">
-        <v>2168.459826904656</v>
+        <v>1586.922708505004</v>
       </c>
       <c r="X35" t="n">
-        <v>2168.459826904656</v>
+        <v>1213.456950243924</v>
       </c>
       <c r="Y35" t="n">
-        <v>1778.320494928845</v>
+        <v>823.3176182681125</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>693.01044638299</v>
+        <v>525.9940904859269</v>
       </c>
       <c r="C36" t="n">
-        <v>518.5574171018631</v>
+        <v>351.5410612047999</v>
       </c>
       <c r="D36" t="n">
-        <v>369.6230074406118</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E36" t="n">
-        <v>210.3855524351563</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="F36" t="n">
-        <v>63.85099446204126</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G36" t="n">
         <v>43.36919653809313</v>
@@ -7049,19 +7049,19 @@
         <v>1766.227047333489</v>
       </c>
       <c r="U36" t="n">
-        <v>1766.227047333489</v>
+        <v>1599.210691436426</v>
       </c>
       <c r="V36" t="n">
-        <v>1531.074939101746</v>
+        <v>1364.058583204683</v>
       </c>
       <c r="W36" t="n">
-        <v>1276.837582373545</v>
+        <v>1109.821226476482</v>
       </c>
       <c r="X36" t="n">
-        <v>1068.986082168012</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="Y36" t="n">
-        <v>861.2257834030581</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1766.018782930887</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="C37" t="n">
-        <v>1691.53967640215</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="D37" t="n">
-        <v>1691.53967640215</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E37" t="n">
-        <v>1691.53967640215</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J37" t="n">
-        <v>1691.53967640215</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K37" t="n">
-        <v>1740.887338843872</v>
+        <v>92.71685897981544</v>
       </c>
       <c r="L37" t="n">
-        <v>1833.941154665951</v>
+        <v>185.7706748018945</v>
       </c>
       <c r="M37" t="n">
-        <v>1935.31163935679</v>
+        <v>287.1411594927338</v>
       </c>
       <c r="N37" t="n">
-        <v>2042.129286401803</v>
+        <v>393.9588065377468</v>
       </c>
       <c r="O37" t="n">
-        <v>2120.479583467423</v>
+        <v>472.3091036033668</v>
       </c>
       <c r="P37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Q37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="R37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S37" t="n">
-        <v>2168.459826904656</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T37" t="n">
-        <v>2168.459826904656</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="U37" t="n">
-        <v>2168.459826904656</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="V37" t="n">
-        <v>2168.459826904656</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="W37" t="n">
-        <v>2168.459826904656</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="X37" t="n">
-        <v>2168.459826904656</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="Y37" t="n">
-        <v>1947.667247761126</v>
+        <v>338.1722376183966</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1156.385664683499</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="C38" t="n">
-        <v>787.4231477430878</v>
+        <v>1214.827258283183</v>
       </c>
       <c r="D38" t="n">
-        <v>429.1574491363373</v>
+        <v>856.5615596764328</v>
       </c>
       <c r="E38" t="n">
-        <v>43.36919653809311</v>
+        <v>470.7733070781886</v>
       </c>
       <c r="F38" t="n">
-        <v>43.36919653809311</v>
+        <v>470.7733070781886</v>
       </c>
       <c r="G38" t="n">
-        <v>43.36919653809311</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H38" t="n">
-        <v>43.36919653809311</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I38" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J38" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232724</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M38" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O38" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P38" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.63095817245</v>
       </c>
       <c r="Q38" t="n">
         <v>2168.459826904656</v>
@@ -7201,25 +7201,25 @@
         <v>2168.459826904656</v>
       </c>
       <c r="S38" t="n">
-        <v>2084.222389939277</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T38" t="n">
-        <v>1874.048392091192</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U38" t="n">
-        <v>1874.048392091192</v>
+        <v>1914.852662567166</v>
       </c>
       <c r="V38" t="n">
-        <v>1542.985504747621</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="W38" t="n">
-        <v>1542.985504747621</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="X38" t="n">
-        <v>1542.985504747621</v>
+        <v>1583.789775223595</v>
       </c>
       <c r="Y38" t="n">
-        <v>1542.985504747621</v>
+        <v>1583.789775223595</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>672.528648459042</v>
+        <v>438.4138720102982</v>
       </c>
       <c r="C39" t="n">
-        <v>498.0756191779149</v>
+        <v>438.4138720102982</v>
       </c>
       <c r="D39" t="n">
-        <v>349.1412095166637</v>
+        <v>438.4138720102982</v>
       </c>
       <c r="E39" t="n">
-        <v>189.9037545112081</v>
+        <v>279.1764170048427</v>
       </c>
       <c r="F39" t="n">
-        <v>43.36919653809311</v>
+        <v>132.6418590317277</v>
       </c>
       <c r="G39" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H39" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J39" t="n">
-        <v>89.55356510562336</v>
+        <v>89.55356510562338</v>
       </c>
       <c r="K39" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504524</v>
       </c>
       <c r="L39" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M39" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789498</v>
       </c>
       <c r="N39" t="n">
         <v>1166.885386873582</v>
@@ -7280,25 +7280,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S39" t="n">
-        <v>1725.553552365025</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T39" t="n">
-        <v>1530.843230839001</v>
+        <v>1571.516725807465</v>
       </c>
       <c r="U39" t="n">
-        <v>1302.741640972265</v>
+        <v>1343.415135940729</v>
       </c>
       <c r="V39" t="n">
-        <v>1302.741640972265</v>
+        <v>1108.263027708987</v>
       </c>
       <c r="W39" t="n">
-        <v>1048.504284244064</v>
+        <v>854.025670980785</v>
       </c>
       <c r="X39" t="n">
-        <v>1048.504284244064</v>
+        <v>646.1741707752522</v>
       </c>
       <c r="Y39" t="n">
-        <v>840.7439854791101</v>
+        <v>438.4138720102982</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="C40" t="n">
-        <v>340.3757834483392</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2591440360035</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E40" t="n">
         <v>190.2591440360035</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="H40" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="J40" t="n">
-        <v>43.36919653809311</v>
+        <v>43.36919653809313</v>
       </c>
       <c r="K40" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981544</v>
       </c>
       <c r="L40" t="n">
         <v>185.7706748018945</v>
@@ -7356,28 +7356,28 @@
         <v>520.2893470406002</v>
       </c>
       <c r="R40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="S40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="U40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="V40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="W40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="X40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="Y40" t="n">
-        <v>509.3119663762461</v>
+        <v>520.2893470406002</v>
       </c>
     </row>
     <row r="41">
@@ -7387,49 +7387,49 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2168.459826904656</v>
+        <v>1130.718431153146</v>
       </c>
       <c r="C41" t="n">
-        <v>1799.497309964245</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="D41" t="n">
-        <v>1441.231611357494</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="E41" t="n">
-        <v>1055.44335875925</v>
+        <v>761.7559142127341</v>
       </c>
       <c r="F41" t="n">
-        <v>644.4574539696425</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="G41" t="n">
-        <v>228.4264086730498</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I41" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J41" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K41" t="n">
-        <v>366.8168396232727</v>
+        <v>366.8168396232724</v>
       </c>
       <c r="L41" t="n">
-        <v>669.5878927711881</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M41" t="n">
-        <v>1038.148464578732</v>
+        <v>1038.148464578731</v>
       </c>
       <c r="N41" t="n">
-        <v>1417.286540135169</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O41" t="n">
-        <v>1761.960612545599</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P41" t="n">
-        <v>2021.63095817245</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q41" t="n">
         <v>2168.459826904656</v>
@@ -7444,19 +7444,19 @@
         <v>2168.459826904656</v>
       </c>
       <c r="U41" t="n">
-        <v>2168.459826904656</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="V41" t="n">
-        <v>2168.459826904656</v>
+        <v>1583.789775223594</v>
       </c>
       <c r="W41" t="n">
-        <v>2168.459826904656</v>
+        <v>1583.789775223594</v>
       </c>
       <c r="X41" t="n">
-        <v>2168.459826904656</v>
+        <v>1520.857763128957</v>
       </c>
       <c r="Y41" t="n">
-        <v>2168.459826904656</v>
+        <v>1130.718431153146</v>
       </c>
     </row>
     <row r="42">
@@ -7466,40 +7466,40 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>217.8222258192201</v>
+        <v>523.5942387977907</v>
       </c>
       <c r="C42" t="n">
-        <v>43.36919653809313</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="D42" t="n">
-        <v>43.36919653809313</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E42" t="n">
-        <v>43.36919653809313</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F42" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I42" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J42" t="n">
-        <v>89.55356510562338</v>
+        <v>89.55356510562336</v>
       </c>
       <c r="K42" t="n">
-        <v>246.6448318504524</v>
+        <v>246.6448318504523</v>
       </c>
       <c r="L42" t="n">
         <v>504.1959674104402</v>
       </c>
       <c r="M42" t="n">
-        <v>824.1028628789498</v>
+        <v>824.1028628789497</v>
       </c>
       <c r="N42" t="n">
         <v>1166.885386873582</v>
@@ -7517,25 +7517,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S42" t="n">
-        <v>1713.850738162479</v>
+        <v>1766.227047333489</v>
       </c>
       <c r="T42" t="n">
-        <v>1519.140416636455</v>
+        <v>1656.697092594957</v>
       </c>
       <c r="U42" t="n">
-        <v>1291.038826769719</v>
+        <v>1428.595502728222</v>
       </c>
       <c r="V42" t="n">
-        <v>1055.886718537977</v>
+        <v>1193.443394496479</v>
       </c>
       <c r="W42" t="n">
-        <v>801.649361809775</v>
+        <v>939.2060377682774</v>
       </c>
       <c r="X42" t="n">
-        <v>593.7978616042421</v>
+        <v>731.3545375627446</v>
       </c>
       <c r="Y42" t="n">
-        <v>386.0375628392882</v>
+        <v>523.5942387977907</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.36919653809313</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="C43" t="n">
-        <v>43.36919653809313</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="D43" t="n">
-        <v>43.36919653809313</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="E43" t="n">
-        <v>43.36919653809313</v>
+        <v>148.7723961508307</v>
       </c>
       <c r="F43" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G43" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H43" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I43" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J43" t="n">
-        <v>43.36919653809313</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="K43" t="n">
-        <v>92.71685897981544</v>
+        <v>92.71685897981541</v>
       </c>
       <c r="L43" t="n">
         <v>185.7706748018945</v>
@@ -7596,25 +7596,25 @@
         <v>520.2893470406002</v>
       </c>
       <c r="S43" t="n">
-        <v>321.1098614248266</v>
+        <v>520.2893470406002</v>
       </c>
       <c r="T43" t="n">
-        <v>321.1098614248266</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="U43" t="n">
-        <v>321.1098614248266</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="V43" t="n">
-        <v>321.1098614248266</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="W43" t="n">
-        <v>321.1098614248266</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="X43" t="n">
-        <v>264.1617756816232</v>
+        <v>296.6854897332238</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.36919653809313</v>
+        <v>296.6854897332238</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1404.854736667764</v>
+        <v>1138.113490527231</v>
       </c>
       <c r="C44" t="n">
-        <v>1035.892219727352</v>
+        <v>1138.113490527231</v>
       </c>
       <c r="D44" t="n">
-        <v>677.6265211206019</v>
+        <v>1138.113490527231</v>
       </c>
       <c r="E44" t="n">
-        <v>677.6265211206019</v>
+        <v>752.325237928987</v>
       </c>
       <c r="F44" t="n">
-        <v>266.6406163309943</v>
+        <v>341.3393331393794</v>
       </c>
       <c r="G44" t="n">
         <v>43.36919653809311</v>
@@ -7654,7 +7654,7 @@
         <v>366.8168396232724</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711876</v>
       </c>
       <c r="M44" t="n">
         <v>1038.148464578731</v>
@@ -7681,19 +7681,19 @@
         <v>2168.459826904656</v>
       </c>
       <c r="U44" t="n">
-        <v>2168.459826904656</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="V44" t="n">
-        <v>2168.459826904656</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="W44" t="n">
-        <v>2168.459826904656</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="X44" t="n">
-        <v>1794.994068643576</v>
+        <v>1914.852662567165</v>
       </c>
       <c r="Y44" t="n">
-        <v>1404.854736667764</v>
+        <v>1524.713330591353</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>525.9940904859269</v>
+        <v>299.449211512016</v>
       </c>
       <c r="C45" t="n">
-        <v>351.5410612047999</v>
+        <v>124.996182230889</v>
       </c>
       <c r="D45" t="n">
-        <v>202.6066515435486</v>
+        <v>124.996182230889</v>
       </c>
       <c r="E45" t="n">
-        <v>43.36919653809311</v>
+        <v>124.996182230889</v>
       </c>
       <c r="F45" t="n">
-        <v>43.36919653809311</v>
+        <v>124.996182230889</v>
       </c>
       <c r="G45" t="n">
         <v>43.36919653809311</v>
@@ -7754,25 +7754,25 @@
         <v>1766.227047333489</v>
       </c>
       <c r="S45" t="n">
-        <v>1766.227047333489</v>
+        <v>1627.262386835207</v>
       </c>
       <c r="T45" t="n">
-        <v>1659.096944283094</v>
+        <v>1432.552065309183</v>
       </c>
       <c r="U45" t="n">
-        <v>1430.995354416358</v>
+        <v>1204.450475442447</v>
       </c>
       <c r="V45" t="n">
-        <v>1195.843246184615</v>
+        <v>969.2983672107043</v>
       </c>
       <c r="W45" t="n">
-        <v>941.6058894564137</v>
+        <v>715.0610104825028</v>
       </c>
       <c r="X45" t="n">
-        <v>733.7543892508809</v>
+        <v>507.2095102769699</v>
       </c>
       <c r="Y45" t="n">
-        <v>525.9940904859269</v>
+        <v>299.449211512016</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>299.4967678970701</v>
+        <v>341.398929532822</v>
       </c>
       <c r="C46" t="n">
-        <v>130.5605849691632</v>
+        <v>341.398929532822</v>
       </c>
       <c r="D46" t="n">
-        <v>130.5605849691632</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E46" t="n">
-        <v>130.5605849691632</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="F46" t="n">
-        <v>130.5605849691632</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="G46" t="n">
-        <v>130.5605849691632</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H46" t="n">
         <v>43.36919653809311</v>
@@ -7836,22 +7836,22 @@
         <v>520.2893470406002</v>
       </c>
       <c r="T46" t="n">
-        <v>520.2893470406002</v>
+        <v>341.398929532822</v>
       </c>
       <c r="U46" t="n">
-        <v>520.2893470406002</v>
+        <v>341.398929532822</v>
       </c>
       <c r="V46" t="n">
-        <v>520.2893470406002</v>
+        <v>341.398929532822</v>
       </c>
       <c r="W46" t="n">
-        <v>520.2893470406002</v>
+        <v>341.398929532822</v>
       </c>
       <c r="X46" t="n">
-        <v>520.2893470406002</v>
+        <v>341.398929532822</v>
       </c>
       <c r="Y46" t="n">
-        <v>299.4967678970701</v>
+        <v>341.398929532822</v>
       </c>
     </row>
   </sheetData>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>332.938834636356</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22606,7 +22606,7 @@
         <v>251.2180195592479</v>
       </c>
       <c r="V2" t="n">
-        <v>277.9572514430103</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>299.4459616902884</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22649,7 +22649,7 @@
         <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
-        <v>2.329504874093416</v>
+        <v>46.18894706358476</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>31.01751192697151</v>
       </c>
       <c r="R3" t="n">
-        <v>92.6799817290989</v>
+        <v>48.82053953960754</v>
       </c>
       <c r="S3" t="n">
         <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>196.7240278659264</v>
+        <v>146.9290208388017</v>
       </c>
       <c r="U3" t="n">
-        <v>176.0902156279161</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>201.899976133795</v>
       </c>
       <c r="X3" t="n">
-        <v>155.9779781763528</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>155.8876887501797</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22786,31 +22786,31 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>272.6079424819054</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>262.0180923315808</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>325.2567584078702</v>
       </c>
       <c r="G5" t="n">
-        <v>413.6947334417681</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H5" t="n">
-        <v>323.0068303993971</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I5" t="n">
-        <v>148.4833125319238</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J5" t="n">
-        <v>44.56856880475192</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K5" t="n">
-        <v>15.54570289742017</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22828,19 +22828,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>45.08382607005075</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R5" t="n">
-        <v>62.57153992015645</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S5" t="n">
-        <v>120.3724647440599</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T5" t="n">
-        <v>164.0515997126328</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2170125819671</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>293.5729893669514</v>
       </c>
     </row>
     <row r="6">
@@ -22871,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>64.98013116629875</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4831591347105</v>
+        <v>43.69431484884211</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9261969612455</v>
+        <v>10.06468283495377</v>
       </c>
       <c r="I6" t="n">
-        <v>17.89519199841209</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22907,19 +22907,19 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.90429617453024</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.25662417412325</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S6" t="n">
-        <v>103.6971860541265</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>196.6968820799462</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8847795790998</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22928,7 +22928,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>172.3437369354266</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2696840886636</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H7" t="n">
-        <v>155.814201835988</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I7" t="n">
-        <v>133.7591589956</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J7" t="n">
-        <v>75.99984586487786</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K7" t="n">
-        <v>45.21186227978788</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L7" t="n">
-        <v>27.64774135187326</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M7" t="n">
-        <v>25.85947179235004</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N7" t="n">
-        <v>17.30769649739644</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O7" t="n">
-        <v>36.50473068115869</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P7" t="n">
-        <v>50.49061978228498</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.10635862868878</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R7" t="n">
-        <v>144.8613331552887</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S7" t="n">
-        <v>211.4463886533601</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8636914573385</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2796859781384</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23032,19 +23032,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>350.1720450814506</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>320.7982251355236</v>
+        <v>413.3887043444878</v>
       </c>
       <c r="H8" t="n">
-        <v>227.9704273259875</v>
+        <v>221.1238788688433</v>
       </c>
       <c r="I8" t="n">
-        <v>46.89118423444745</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,25 +23065,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422324</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612668</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>215.0431621354273</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1984878605957</v>
+        <v>139.079870129261</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>215.6395983452112</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>237.1283085924893</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>54.42052352494363</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>60.59583886339203</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>43.69431484884211</v>
+        <v>136.3194191323308</v>
       </c>
       <c r="H9" t="n">
-        <v>10.06468283495377</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,19 +23144,19 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56947841277972</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>153.4011028494393</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>196.197498299121</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23165,10 +23165,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>116.2807129412662</v>
       </c>
       <c r="Y9" t="n">
-        <v>130.8804804455787</v>
+        <v>93.57003565238065</v>
       </c>
     </row>
     <row r="10">
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1658146852775</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>154.8907084131551</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>130.6355227555885</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>68.65627904547948</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092828</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>12.20519387026839</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>9.577470677924651</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>21.823262646183</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P10" t="n">
-        <v>37.92808757638606</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.40871249605685</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1909870721275</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
-        <v>209.6362282325312</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.4198858246887</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2740203743174</v>
+        <v>282.6468208101924</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>241.703508565617</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H11" t="n">
-        <v>129.3682389399025</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
-        <v>8.630724984277251</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
         <v>25.91829388988691</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871046</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>103.6192295763155</v>
       </c>
       <c r="E12" t="n">
-        <v>93.07824011375023</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
         <v>15.37922103265839</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
         <v>195.4095977920013</v>
@@ -23396,10 +23396,10 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459974</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>115.0308748441934</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23439,10 +23439,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>37.06597233494212</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,7 +23457,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q13" t="n">
         <v>68.68604055159726</v>
@@ -23503,13 +23503,13 @@
         <v>167.1574544543631</v>
       </c>
       <c r="E14" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637382</v>
+        <v>225.5722460637381</v>
       </c>
       <c r="H14" t="n">
         <v>316.8938261062223</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T14" t="n">
-        <v>125.353062896776</v>
+        <v>48.27134388011225</v>
       </c>
       <c r="U14" t="n">
         <v>251.1692605650303</v>
@@ -23576,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -23621,28 +23621,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>102.3056031264236</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>64.16939599459971</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715758</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>25.69307042320568</v>
       </c>
     </row>
     <row r="16">
@@ -23676,10 +23676,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>37.06597233494212</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
         <v>68.68604055159726</v>
@@ -23703,7 +23703,7 @@
         <v>132.8223696106904</v>
       </c>
       <c r="S16" t="n">
-        <v>206.7802557954962</v>
+        <v>154.5643095410618</v>
       </c>
       <c r="T16" t="n">
         <v>223.7196734901001</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>22.10645968628506</v>
+        <v>39.55460742273692</v>
       </c>
       <c r="E17" t="n">
-        <v>4.345694851555663</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>29.29137052100532</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>34.85543609127063</v>
+        <v>331.950490008139</v>
       </c>
       <c r="H17" t="n">
-        <v>310.1579315126722</v>
+        <v>312.3714465860387</v>
       </c>
       <c r="I17" t="n">
-        <v>100.1144928731456</v>
+        <v>108.4471221777677</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>35.7660945799897</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>143.7879749817756</v>
+        <v>148.7132013686267</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5647033598059</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1166428115838</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>12.62382427218887</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23813,25 +23813,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>73.07745790919742</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.811877114983</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H18" t="n">
-        <v>97.44302587598278</v>
+        <v>98.55989955107017</v>
       </c>
       <c r="I18" t="n">
-        <v>46.78828184830501</v>
+        <v>50.7698705628536</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.58346658365893</v>
+        <v>57.76351369743597</v>
       </c>
       <c r="S18" t="n">
-        <v>143.2336289799616</v>
+        <v>145.3816580508041</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23879,7 +23879,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>124.2816263252049</v>
       </c>
     </row>
     <row r="19">
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7069037931486</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H19" t="n">
-        <v>34.59336325598386</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I19" t="n">
-        <v>116.8348206541131</v>
+        <v>119.7504228668709</v>
       </c>
       <c r="J19" t="n">
-        <v>36.2112789719688</v>
+        <v>43.06576458521448</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.98118315606625</v>
+        <v>52.09956646371779</v>
       </c>
       <c r="R19" t="n">
-        <v>119.5566845951333</v>
+        <v>123.9159858479446</v>
       </c>
       <c r="S19" t="n">
-        <v>201.6386629578855</v>
+        <v>203.3282667794866</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4590847401381</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2489888711103</v>
+        <v>103.129914857664</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>39.55460742273686</v>
       </c>
       <c r="E20" t="n">
-        <v>4.345694851555663</v>
+        <v>365.2191119815421</v>
       </c>
       <c r="F20" t="n">
-        <v>29.29137052100532</v>
+        <v>91.74761154376534</v>
       </c>
       <c r="G20" t="n">
-        <v>34.85543609127063</v>
+        <v>97.52781431147889</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>312.3714465860387</v>
       </c>
       <c r="I20" t="n">
-        <v>77.69584245141985</v>
+        <v>108.4471221777677</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.76609457998973</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>143.7879749817756</v>
+        <v>148.7132013686267</v>
       </c>
       <c r="T20" t="n">
-        <v>210.5647033598059</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1166428115838</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.811877114983</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H21" t="n">
-        <v>97.44302587598278</v>
+        <v>98.55989955107017</v>
       </c>
       <c r="I21" t="n">
-        <v>46.78828184830502</v>
+        <v>50.7698705628536</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>57.76351369743597</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>145.3816580508041</v>
       </c>
       <c r="T21" t="n">
-        <v>193.9911444653429</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8406162883283</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>149.7770855679323</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>196.8675577742401</v>
       </c>
     </row>
     <row r="22">
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H22" t="n">
-        <v>150.8105733904094</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I22" t="n">
-        <v>116.8348206541132</v>
+        <v>119.7504228668709</v>
       </c>
       <c r="J22" t="n">
-        <v>36.21127897196881</v>
+        <v>43.06576458521448</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.98118315606627</v>
+        <v>52.09956646371779</v>
       </c>
       <c r="R22" t="n">
-        <v>119.5566845951333</v>
+        <v>123.9159858479446</v>
       </c>
       <c r="S22" t="n">
-        <v>201.6386629578855</v>
+        <v>203.3282667794866</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4590847401381</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2489888711103</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V22" t="n">
-        <v>156.193374335982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>103.3986360482727</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.8707348436268</v>
+        <v>192.1743219664862</v>
       </c>
       <c r="H23" t="n">
         <v>304.326804756183</v>
@@ -24259,22 +24259,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>109.8186772485098</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24299,10 +24299,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470352</v>
+        <v>57.16044636663032</v>
       </c>
       <c r="H24" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>36.2994675790488</v>
@@ -24338,7 +24338,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>84.32856311961747</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>127.0399184606681</v>
       </c>
       <c r="G25" t="n">
         <v>166.4515011109318</v>
@@ -24417,7 +24417,7 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T25" t="n">
-        <v>35.73986807341163</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
         <v>286.2350578157167</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>51.9102685354063</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>167.3063980996338</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,16 +24530,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>41.04722614225655</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I27" t="n">
         <v>36.2994675790488</v>
@@ -24575,19 +24575,19 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
-        <v>107.2901786997051</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>106.2270600086094</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4515011109318</v>
@@ -24654,16 +24654,16 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T28" t="n">
-        <v>35.45192755253737</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24694,13 +24694,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>42.7998490622191</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>77.85718769014488</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24761,19 +24761,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>94.50081326185511</v>
@@ -24809,22 +24809,22 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>32.83509503504436</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>162.9017820221958</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4515011109318</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>22.59469128425545</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S31" t="n">
-        <v>77.07210304633035</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>211.9307406858682</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>76.63023017176215</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>117.8829896042513</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25001,13 +25001,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>135.5072338470352</v>
@@ -25052,7 +25052,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>18.50644498069443</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>64.25849655751563</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>38.28871502411324</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>41.37935339401501</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,7 +25171,7 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
-        <v>96.2908401462214</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
         <v>78.1636065770829</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>14.23491205731429</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25244,10 +25244,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>115.2302539023266</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185511</v>
@@ -25289,7 +25289,7 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8205739680685</v>
+        <v>60.47438162997594</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>93.51250563517796</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>166.4515011109318</v>
@@ -25365,7 +25365,7 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T37" t="n">
-        <v>221.3678187343026</v>
+        <v>41.07188040632104</v>
       </c>
       <c r="U37" t="n">
         <v>286.2350578157167</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.8707348436268</v>
+        <v>66.9042719860152</v>
       </c>
       <c r="H38" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.41824611352523</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -25484,7 +25484,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470352</v>
+        <v>47.127297978337</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185511</v>
@@ -25520,7 +25520,7 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S39" t="n">
-        <v>97.30825387452035</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25529,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>135.5663557888587</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>22.59469128425545</v>
       </c>
       <c r="R40" t="n">
-        <v>97.20524440792801</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S40" t="n">
         <v>197.1876907596158</v>
@@ -25633,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
-        <v>199.2837713196588</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>307.4284087047789</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,10 +25715,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.5072338470352</v>
@@ -25757,10 +25757,10 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S42" t="n">
-        <v>85.72246781399929</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>84.3285631196177</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25794,10 +25794,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>41.07188040632107</v>
       </c>
       <c r="G43" t="n">
         <v>166.4515011109318</v>
@@ -25836,10 +25836,10 @@
         <v>108.0728512656385</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T43" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2350578157167</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>169.3310505032658</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>190.8320292486546</v>
+        <v>116.8802996083533</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
@@ -25921,7 +25921,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,7 +25930,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25949,16 +25949,16 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>135.5072338470352</v>
+        <v>54.69651801116731</v>
       </c>
       <c r="H45" t="n">
         <v>94.50081326185511</v>
@@ -25994,10 +25994,10 @@
         <v>31.66886087721423</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>86.70441629087266</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H46" t="n">
-        <v>62.22033681448586</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I46" t="n">
         <v>109.1541654470835</v>
@@ -26076,7 +26076,7 @@
         <v>197.1876907596158</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>44.26630540160215</v>
       </c>
       <c r="U46" t="n">
         <v>286.2350578157167</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>308387.5163854413</v>
+        <v>308387.5163854414</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>310835.629584736</v>
+        <v>355774.7999316616</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355774.7999316615</v>
+        <v>372223.8826140433</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>560952.4023156185</v>
+        <v>519003.9076024859</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>560952.4023156184</v>
+        <v>519003.9076024859</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671458.5347830964</v>
+        <v>671458.5347830962</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671458.5347830963</v>
+        <v>671458.5347830962</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671458.5347830964</v>
+        <v>671458.5347830963</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671458.5347830965</v>
+        <v>671458.5347830962</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671458.5347830962</v>
+        <v>671458.5347830963</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>106749.5249026527</v>
       </c>
       <c r="C2" t="n">
-        <v>107596.9487024085</v>
+        <v>123152.8153609596</v>
       </c>
       <c r="D2" t="n">
-        <v>123152.8153609596</v>
+        <v>128846.7285971687</v>
       </c>
       <c r="E2" t="n">
         <v>149975.680096304</v>
@@ -26328,22 +26328,22 @@
         <v>149975.680096304</v>
       </c>
       <c r="G2" t="n">
-        <v>194175.8315707908</v>
+        <v>179655.1987854757</v>
       </c>
       <c r="H2" t="n">
-        <v>194175.8315707908</v>
+        <v>179655.1987854757</v>
       </c>
       <c r="I2" t="n">
+        <v>232427.9543479946</v>
+      </c>
+      <c r="J2" t="n">
         <v>232427.9543479947</v>
-      </c>
-      <c r="J2" t="n">
-        <v>232427.9543479948</v>
       </c>
       <c r="K2" t="n">
         <v>232427.9543479947</v>
       </c>
       <c r="L2" t="n">
-        <v>232427.9543479947</v>
+        <v>232427.9543479948</v>
       </c>
       <c r="M2" t="n">
         <v>232427.9543479947</v>
@@ -26352,7 +26352,7 @@
         <v>232427.9543479947</v>
       </c>
       <c r="O2" t="n">
-        <v>232427.9543479947</v>
+        <v>232427.9543479946</v>
       </c>
       <c r="P2" t="n">
         <v>232427.9543479947</v>
@@ -26368,43 +26368,43 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>3565.211031542055</v>
+        <v>69152.13364531014</v>
       </c>
       <c r="D3" t="n">
-        <v>61959.84223436579</v>
+        <v>21905.62569575126</v>
       </c>
       <c r="E3" t="n">
-        <v>101335.4572062673</v>
+        <v>80646.21400928599</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>179295.6925790502</v>
+        <v>120376.4632767635</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>150365.7018227409</v>
+        <v>207445.0213781871</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860499</v>
+        <v>13028.56481860502</v>
       </c>
       <c r="K3" t="n">
-        <v>568.8360386923612</v>
+        <v>11033.3513000807</v>
       </c>
       <c r="L3" t="n">
-        <v>10290.6135650897</v>
+        <v>4922.040583148902</v>
       </c>
       <c r="M3" t="n">
-        <v>23639.65040155421</v>
+        <v>18793.20307042409</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45737.90959937617</v>
+        <v>30707.75274100781</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>32.53856901697745</v>
+        <v>67.14558386063671</v>
       </c>
       <c r="D4" t="n">
-        <v>67.14558386063672</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
         <v>137.800118072334</v>
@@ -26432,10 +26432,10 @@
         <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>268.9433210122697</v>
+        <v>225.1452198420024</v>
       </c>
       <c r="H4" t="n">
-        <v>268.9433210122697</v>
+        <v>225.1452198420024</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469141</v>
@@ -26472,10 +26472,10 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>45509.32097968736</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="D5" t="n">
-        <v>49237.11966583622</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
         <v>23358.20041161357</v>
@@ -26484,31 +26484,31 @@
         <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>38480.45449659559</v>
+        <v>33511.0570549495</v>
       </c>
       <c r="H5" t="n">
-        <v>38480.45449659559</v>
+        <v>33511.0570549495</v>
       </c>
       <c r="I5" t="n">
+        <v>51571.48185587229</v>
+      </c>
+      <c r="J5" t="n">
+        <v>51571.48185587229</v>
+      </c>
+      <c r="K5" t="n">
         <v>51571.48185587231</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>51571.48185587231</v>
-      </c>
-      <c r="K5" t="n">
-        <v>51571.48185587229</v>
-      </c>
-      <c r="L5" t="n">
-        <v>51571.48185587229</v>
       </c>
       <c r="M5" t="n">
         <v>51571.48185587231</v>
       </c>
       <c r="N5" t="n">
+        <v>51571.48185587231</v>
+      </c>
+      <c r="O5" t="n">
         <v>51571.48185587229</v>
-      </c>
-      <c r="O5" t="n">
-        <v>51571.48185587231</v>
       </c>
       <c r="P5" t="n">
         <v>51571.48185587229</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337694.974720074</v>
+        <v>-352290.4898054227</v>
       </c>
       <c r="C6" t="n">
-        <v>58489.87812216207</v>
+        <v>-8987.804705045586</v>
       </c>
       <c r="D6" t="n">
-        <v>11888.70787689695</v>
+        <v>42668.46645527791</v>
       </c>
       <c r="E6" t="n">
-        <v>25144.22236035083</v>
+        <v>33639.40353829748</v>
       </c>
       <c r="F6" t="n">
-        <v>126479.6795666181</v>
+        <v>114285.6175475835</v>
       </c>
       <c r="G6" t="n">
-        <v>-23869.25882586718</v>
+        <v>14997.33336428442</v>
       </c>
       <c r="H6" t="n">
-        <v>155426.4337531829</v>
+        <v>135373.796641048</v>
       </c>
       <c r="I6" t="n">
-        <v>30106.44874413461</v>
+        <v>-34586.25092747467</v>
       </c>
       <c r="J6" t="n">
-        <v>167443.5857482706</v>
+        <v>159830.2056321075</v>
       </c>
       <c r="K6" t="n">
-        <v>179903.3145281831</v>
+        <v>161825.4191506318</v>
       </c>
       <c r="L6" t="n">
-        <v>170181.5370017858</v>
+        <v>167936.7298675637</v>
       </c>
       <c r="M6" t="n">
-        <v>156832.5001653213</v>
+        <v>154065.5673802885</v>
       </c>
       <c r="N6" t="n">
-        <v>180472.1505668755</v>
+        <v>172858.7704507125</v>
       </c>
       <c r="O6" t="n">
-        <v>134734.2409674993</v>
+        <v>142151.0177097047</v>
       </c>
       <c r="P6" t="n">
-        <v>180472.1505668755</v>
+        <v>172858.7704507125</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>399.9910132500468</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="D3" t="n">
-        <v>457.5913187641655</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
         <v>548.4699409129046</v>
@@ -26752,10 +26752,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>712.0782680356265</v>
+        <v>658.3141401703845</v>
       </c>
       <c r="H3" t="n">
-        <v>712.0782680356264</v>
+        <v>658.3141401703845</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376848</v>
@@ -26792,10 +26792,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D4" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
         <v>187.5255871663199</v>
@@ -26804,31 +26804,31 @@
         <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
-        <v>377.5846752207061</v>
+        <v>315.128434197946</v>
       </c>
       <c r="H4" t="n">
-        <v>377.5846752207061</v>
+        <v>315.1284341979461</v>
       </c>
       <c r="I4" t="n">
+        <v>542.1149567261638</v>
+      </c>
+      <c r="J4" t="n">
+        <v>542.1149567261639</v>
+      </c>
+      <c r="K4" t="n">
         <v>542.1149567261641</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>542.1149567261641</v>
-      </c>
-      <c r="K4" t="n">
-        <v>542.1149567261639</v>
-      </c>
-      <c r="L4" t="n">
-        <v>542.1149567261639</v>
       </c>
       <c r="M4" t="n">
         <v>542.1149567261641</v>
       </c>
       <c r="N4" t="n">
+        <v>542.1149567261641</v>
+      </c>
+      <c r="O4" t="n">
         <v>542.1149567261639</v>
-      </c>
-      <c r="O4" t="n">
-        <v>542.1149567261641</v>
       </c>
       <c r="P4" t="n">
         <v>542.1149567261639</v>
@@ -26962,25 +26962,25 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>3.131069982478778</v>
+        <v>60.73137549659748</v>
       </c>
       <c r="D3" t="n">
-        <v>57.6003055141187</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>90.87862214873905</v>
+        <v>72.35418971440237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163.6083271227219</v>
+        <v>109.8441992574799</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>141.6323965020584</v>
+        <v>195.3965243673003</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2102049932098</v>
+        <v>42.86994226197757</v>
       </c>
       <c r="D4" t="n">
-        <v>40.65973726876777</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="E4" t="n">
-        <v>94.86063787721767</v>
+        <v>75.41292704139616</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.0590880543863</v>
+        <v>127.6028470316261</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>164.530281505458</v>
+        <v>226.9865225282177</v>
       </c>
       <c r="J4" t="n">
-        <v>49.7950070271246</v>
+        <v>49.79500702712471</v>
       </c>
       <c r="K4" t="n">
-        <v>2.210204993209572</v>
+        <v>42.8699422619778</v>
       </c>
       <c r="L4" t="n">
-        <v>40.65973726876777</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>94.8606378772179</v>
+        <v>75.41292704139616</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.0590880543865</v>
+        <v>127.6028470316259</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2102049932098</v>
+        <v>42.86994226197757</v>
       </c>
       <c r="L4" t="n">
-        <v>40.65973726876777</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>94.86063787721767</v>
+        <v>75.41292704139616</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.0590880543863</v>
+        <v>127.6028470316261</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31138,13 +31138,13 @@
         <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
-        <v>163.8914845489273</v>
+        <v>191.9290409491429</v>
       </c>
       <c r="N3" t="n">
         <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P3" t="n">
         <v>163.0046057545602</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.608004073367021</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H5" t="n">
-        <v>16.46797171637001</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I5" t="n">
-        <v>61.99257703848215</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J5" t="n">
-        <v>136.4773357219344</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K5" t="n">
-        <v>204.5441481475604</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L5" t="n">
-        <v>253.7551028078664</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M5" t="n">
-        <v>282.3514452476072</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N5" t="n">
-        <v>281.4182756169254</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O5" t="n">
-        <v>270.9305963165179</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q5" t="n">
-        <v>173.646349877813</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R5" t="n">
-        <v>101.0087858736412</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S5" t="n">
-        <v>36.64239282185103</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T5" t="n">
-        <v>7.039037831164139</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1286403258693617</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8603580285001008</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H6" t="n">
-        <v>8.309247275250975</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I6" t="n">
-        <v>29.62197598125348</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J6" t="n">
-        <v>81.28496619263454</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>186.8071236881469</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M6" t="n">
-        <v>194.1392459423527</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N6" t="n">
-        <v>183.3469241036677</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O6" t="n">
-        <v>165.9364628612113</v>
+        <v>195.0536364676412</v>
       </c>
       <c r="P6" t="n">
-        <v>164.2906484422693</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.8239476380129</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R6" t="n">
-        <v>53.41766776950628</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S6" t="n">
-        <v>15.98077302937686</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T6" t="n">
-        <v>3.467846614875405</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05660250187500666</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7212952697951663</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H7" t="n">
-        <v>6.412970671451575</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I7" t="n">
-        <v>21.69131593165828</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J7" t="n">
-        <v>50.99557557451826</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K7" t="n">
-        <v>83.8013958907475</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L7" t="n">
-        <v>107.236934929365</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M7" t="n">
-        <v>113.066312155255</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3778479678368</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O7" t="n">
-        <v>101.9518077706841</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P7" t="n">
-        <v>87.23738426686263</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.39864300075707</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R7" t="n">
-        <v>32.43205822188084</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S7" t="n">
-        <v>12.57020938361212</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T7" t="n">
-        <v>3.081897970942983</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03934337835246366</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.839563090509207</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>18.83942550067742</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>70.91975604685626</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>156.1306178531059</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>233.9993234743607</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>290.2968524055319</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>323.011182516375</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>322.0780128856931</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>309.9456856660333</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>264.5314718690873</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.6521186902262</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
-        <v>115.5544549841991</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>41.91904392497859</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.052687428704056</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.505812112440497</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>33.88765898395</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>92.99032639149897</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>158.9352790843423</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>213.7080965605662</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>174.5799468423664</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>224.0066613724355</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>234.1788327264121</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>187.9491588335306</v>
+        <v>168.8020434923345</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6390352953988</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>61.11002555118424</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>18.28206825439849</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>3.967230395700641</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.336464094284494</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>24.81495217166983</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>58.33914239391663</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>95.8691320296071</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
-        <v>122.6794824109699</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>129.3483132696804</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>126.272699487823</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>116.6332758056598</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>99.79991647276155</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>69.09628913338899</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>37.102404305042</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.38036980444106</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.52570360359275</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.862626203158295</v>
+        <v>2.646489005710086</v>
       </c>
       <c r="H17" t="n">
-        <v>29.3168706030949</v>
+        <v>27.10335552972843</v>
       </c>
       <c r="I17" t="n">
-        <v>110.3613966972603</v>
+        <v>102.0287673926382</v>
       </c>
       <c r="J17" t="n">
-        <v>242.9618207103066</v>
+        <v>224.6174462483866</v>
       </c>
       <c r="K17" t="n">
-        <v>364.1367878899973</v>
+        <v>336.6433258600946</v>
       </c>
       <c r="L17" t="n">
-        <v>451.743884554903</v>
+        <v>417.6358137685948</v>
       </c>
       <c r="M17" t="n">
-        <v>502.6521132953194</v>
+        <v>464.7003126238915</v>
       </c>
       <c r="N17" t="n">
-        <v>510.7855499950429</v>
+        <v>472.2196495113653</v>
       </c>
       <c r="O17" t="n">
-        <v>482.3203106873876</v>
+        <v>445.9036244608357</v>
       </c>
       <c r="P17" t="n">
-        <v>411.6492262969171</v>
+        <v>380.5684271323678</v>
       </c>
       <c r="Q17" t="n">
-        <v>309.1314253963106</v>
+        <v>285.7910396153753</v>
       </c>
       <c r="R17" t="n">
-        <v>179.8194432341424</v>
+        <v>166.2425150049364</v>
       </c>
       <c r="S17" t="n">
-        <v>65.23209460446972</v>
+        <v>60.30686821761865</v>
       </c>
       <c r="T17" t="n">
-        <v>12.53114620432544</v>
+        <v>11.58500562249591</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2290100962526636</v>
+        <v>0.2117191204568069</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.531640048227574</v>
+        <v>1.415996452441959</v>
       </c>
       <c r="H18" t="n">
-        <v>14.79241836051368</v>
+        <v>13.67554468542629</v>
       </c>
       <c r="I18" t="n">
-        <v>52.73409815169499</v>
+        <v>48.7525094371464</v>
       </c>
       <c r="J18" t="n">
-        <v>144.7063959599569</v>
+        <v>133.7806122019835</v>
       </c>
       <c r="K18" t="n">
-        <v>247.3262791912043</v>
+        <v>228.6523745155948</v>
       </c>
       <c r="L18" t="n">
-        <v>332.5607043311669</v>
+        <v>307.4513349918386</v>
       </c>
       <c r="M18" t="n">
-        <v>388.0826560794164</v>
+        <v>358.7812063928595</v>
       </c>
       <c r="N18" t="n">
-        <v>398.3540492098548</v>
+        <v>368.2770773392795</v>
       </c>
       <c r="O18" t="n">
-        <v>364.4161302464965</v>
+        <v>336.9015769983287</v>
       </c>
       <c r="P18" t="n">
-        <v>292.476072016369</v>
+        <v>270.393217308851</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.5125086123479</v>
+        <v>180.7507050520648</v>
       </c>
       <c r="R18" t="n">
-        <v>95.09603738030502</v>
+        <v>87.91599026652798</v>
       </c>
       <c r="S18" t="n">
-        <v>28.44954212387619</v>
+        <v>26.30151305303374</v>
       </c>
       <c r="T18" t="n">
-        <v>6.173584229478684</v>
+        <v>5.707459385062105</v>
       </c>
       <c r="U18" t="n">
-        <v>0.100765792646551</v>
+        <v>0.09315766134486576</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.284075565310146</v>
+        <v>1.187123859323644</v>
       </c>
       <c r="H19" t="n">
-        <v>11.41659911703021</v>
+        <v>10.55461031289568</v>
       </c>
       <c r="I19" t="n">
-        <v>38.61565427314513</v>
+        <v>35.70005206038741</v>
       </c>
       <c r="J19" t="n">
-        <v>90.78414246742732</v>
+        <v>83.92965685418163</v>
       </c>
       <c r="K19" t="n">
-        <v>149.1862338605787</v>
+        <v>137.9222083832379</v>
       </c>
       <c r="L19" t="n">
-        <v>190.9070163189285</v>
+        <v>176.4929417761716</v>
       </c>
       <c r="M19" t="n">
-        <v>201.2846815694804</v>
+        <v>186.0870609665236</v>
       </c>
       <c r="N19" t="n">
-        <v>196.4985817351427</v>
+        <v>181.6623265817719</v>
       </c>
       <c r="O19" t="n">
-        <v>181.4982444494742</v>
+        <v>167.7945614978548</v>
       </c>
       <c r="P19" t="n">
-        <v>155.303102917147</v>
+        <v>143.5772347676523</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.5238184733796</v>
+        <v>99.40543516572805</v>
       </c>
       <c r="R19" t="n">
-        <v>57.73670678203619</v>
+        <v>53.37740552922492</v>
       </c>
       <c r="S19" t="n">
-        <v>22.37793507908681</v>
+        <v>20.68833125748568</v>
       </c>
       <c r="T19" t="n">
-        <v>5.486504688143349</v>
+        <v>5.072256489837387</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07004048538055349</v>
+        <v>0.06475221050856247</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.862626203158295</v>
+        <v>2.646489005710086</v>
       </c>
       <c r="H20" t="n">
-        <v>29.31687060309489</v>
+        <v>27.10335552972843</v>
       </c>
       <c r="I20" t="n">
-        <v>110.3613966972603</v>
+        <v>102.0287673926382</v>
       </c>
       <c r="J20" t="n">
-        <v>242.9618207103065</v>
+        <v>224.6174462483866</v>
       </c>
       <c r="K20" t="n">
-        <v>364.1367878899972</v>
+        <v>336.6433258600946</v>
       </c>
       <c r="L20" t="n">
-        <v>451.743884554903</v>
+        <v>417.6358137685948</v>
       </c>
       <c r="M20" t="n">
-        <v>502.6521132953193</v>
+        <v>464.7003126238915</v>
       </c>
       <c r="N20" t="n">
-        <v>510.7855499950429</v>
+        <v>472.2196495113653</v>
       </c>
       <c r="O20" t="n">
-        <v>482.3203106873875</v>
+        <v>445.9036244608357</v>
       </c>
       <c r="P20" t="n">
-        <v>411.649226296917</v>
+        <v>380.5684271323678</v>
       </c>
       <c r="Q20" t="n">
-        <v>309.1314253963105</v>
+        <v>285.7910396153753</v>
       </c>
       <c r="R20" t="n">
-        <v>179.8194432341424</v>
+        <v>166.2425150049364</v>
       </c>
       <c r="S20" t="n">
-        <v>65.23209460446971</v>
+        <v>60.30686821761865</v>
       </c>
       <c r="T20" t="n">
-        <v>12.53114620432544</v>
+        <v>11.58500562249591</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2290100962526635</v>
+        <v>0.2117191204568069</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.531640048227574</v>
+        <v>1.415996452441959</v>
       </c>
       <c r="H21" t="n">
-        <v>14.79241836051368</v>
+        <v>13.67554468542629</v>
       </c>
       <c r="I21" t="n">
-        <v>52.73409815169498</v>
+        <v>48.7525094371464</v>
       </c>
       <c r="J21" t="n">
-        <v>144.7063959599569</v>
+        <v>133.7806122019835</v>
       </c>
       <c r="K21" t="n">
-        <v>247.3262791912043</v>
+        <v>228.6523745155948</v>
       </c>
       <c r="L21" t="n">
-        <v>332.5607043311668</v>
+        <v>307.4513349918386</v>
       </c>
       <c r="M21" t="n">
-        <v>388.0826560794163</v>
+        <v>358.7812063928595</v>
       </c>
       <c r="N21" t="n">
-        <v>398.3540492098548</v>
+        <v>368.2770773392795</v>
       </c>
       <c r="O21" t="n">
-        <v>364.4161302464964</v>
+        <v>336.9015769983287</v>
       </c>
       <c r="P21" t="n">
-        <v>292.4760720163689</v>
+        <v>270.393217308851</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.5125086123479</v>
+        <v>180.7507050520648</v>
       </c>
       <c r="R21" t="n">
-        <v>95.09603738030501</v>
+        <v>87.91599026652798</v>
       </c>
       <c r="S21" t="n">
-        <v>28.44954212387618</v>
+        <v>26.30151305303374</v>
       </c>
       <c r="T21" t="n">
-        <v>6.173584229478683</v>
+        <v>5.707459385062105</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1007657926465509</v>
+        <v>0.09315766134486576</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.284075565310146</v>
+        <v>1.187123859323644</v>
       </c>
       <c r="H22" t="n">
-        <v>11.41659911703021</v>
+        <v>10.55461031289568</v>
       </c>
       <c r="I22" t="n">
-        <v>38.61565427314513</v>
+        <v>35.70005206038741</v>
       </c>
       <c r="J22" t="n">
-        <v>90.7841424674273</v>
+        <v>83.92965685418163</v>
       </c>
       <c r="K22" t="n">
-        <v>149.1862338605787</v>
+        <v>137.9222083832379</v>
       </c>
       <c r="L22" t="n">
-        <v>190.9070163189284</v>
+        <v>176.4929417761716</v>
       </c>
       <c r="M22" t="n">
-        <v>201.2846815694804</v>
+        <v>186.0870609665236</v>
       </c>
       <c r="N22" t="n">
-        <v>196.4985817351427</v>
+        <v>181.6623265817719</v>
       </c>
       <c r="O22" t="n">
-        <v>181.4982444494741</v>
+        <v>167.7945614978548</v>
       </c>
       <c r="P22" t="n">
-        <v>155.303102917147</v>
+        <v>143.5772347676523</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.5238184733796</v>
+        <v>99.40543516572805</v>
       </c>
       <c r="R22" t="n">
-        <v>57.73670678203618</v>
+        <v>53.37740552922492</v>
       </c>
       <c r="S22" t="n">
-        <v>22.3779350790868</v>
+        <v>20.68833125748568</v>
       </c>
       <c r="T22" t="n">
-        <v>5.486504688143349</v>
+        <v>5.072256489837387</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07004048538055349</v>
+        <v>0.06475221050856247</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34386,7 +34386,7 @@
         <v>578.2538401190908</v>
       </c>
       <c r="P44" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662297</v>
       </c>
       <c r="Q44" t="n">
         <v>370.6176784928398</v>
@@ -34786,13 +34786,13 @@
         <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
-        <v>21.75745062690899</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="N3" t="n">
         <v>49.79500702712463</v>
       </c>
       <c r="O3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P3" t="n">
         <v>29.03019834022993</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L5" t="n">
-        <v>17.98868783787918</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M5" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N5" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O5" t="n">
-        <v>40.83238489483122</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>48.25274390827272</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M6" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N6" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O6" t="n">
-        <v>23.34021841676683</v>
+        <v>52.45739202319677</v>
       </c>
       <c r="P6" t="n">
-        <v>30.31624102793901</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.90947242938014</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>54.53043743554463</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>92.6649492891022</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>79.84747424434661</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>33.29847611381774</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.09384010998329</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>75.15371678069201</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>32.44591292034803</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>91.5825882819677</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>53.97475141920032</v>
+        <v>34.82763607800431</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>61.91591618362028</v>
+        <v>43.57154172170036</v>
       </c>
       <c r="K17" t="n">
-        <v>144.0469368450167</v>
+        <v>116.5534748151141</v>
       </c>
       <c r="L17" t="n">
-        <v>215.9774695849158</v>
+        <v>181.8693987986076</v>
       </c>
       <c r="M17" t="n">
-        <v>272.3058800680467</v>
+        <v>234.3540793966188</v>
       </c>
       <c r="N17" t="n">
-        <v>281.372486398452</v>
+        <v>242.8065859147744</v>
       </c>
       <c r="O17" t="n">
-        <v>252.2220992657008</v>
+        <v>215.8054130391489</v>
       </c>
       <c r="P17" t="n">
-        <v>180.4162305416476</v>
+        <v>149.3354313770983</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.82573552186111</v>
+        <v>63.48534974092578</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.86876929329023</v>
+        <v>6.942985535316836</v>
       </c>
       <c r="K18" t="n">
-        <v>109.4848402168454</v>
+        <v>90.81093554123578</v>
       </c>
       <c r="L18" t="n">
-        <v>194.0063245512927</v>
+        <v>168.8969552119644</v>
       </c>
       <c r="M18" t="n">
-        <v>245.9486221573981</v>
+        <v>216.6471724708412</v>
       </c>
       <c r="N18" t="n">
-        <v>267.0123371265215</v>
+        <v>236.9353652559462</v>
       </c>
       <c r="O18" t="n">
-        <v>221.8198858020521</v>
+        <v>194.3053325538843</v>
       </c>
       <c r="P18" t="n">
-        <v>158.5016646020387</v>
+        <v>136.4188098945207</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.53073452632637</v>
+        <v>40.76893096604331</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.17297569004336</v>
+        <v>8.908950212702507</v>
       </c>
       <c r="L19" t="n">
-        <v>56.02234003769018</v>
+        <v>41.60826549493333</v>
       </c>
       <c r="M19" t="n">
-        <v>62.35889762187534</v>
+        <v>47.1612770189185</v>
       </c>
       <c r="N19" t="n">
-        <v>68.81303726990956</v>
+        <v>53.97678211653874</v>
       </c>
       <c r="O19" t="n">
-        <v>43.04170599763137</v>
+        <v>29.33802304601198</v>
       </c>
       <c r="P19" t="n">
-        <v>17.57509886799943</v>
+        <v>5.849230718504685</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>61.91591618362025</v>
+        <v>43.57154172170036</v>
       </c>
       <c r="K20" t="n">
-        <v>144.0469368450167</v>
+        <v>116.5534748151141</v>
       </c>
       <c r="L20" t="n">
-        <v>215.9774695849158</v>
+        <v>181.8693987986076</v>
       </c>
       <c r="M20" t="n">
-        <v>272.3058800680466</v>
+        <v>234.3540793966188</v>
       </c>
       <c r="N20" t="n">
-        <v>281.3724863984519</v>
+        <v>242.8065859147744</v>
       </c>
       <c r="O20" t="n">
-        <v>252.2220992657008</v>
+        <v>215.8054130391489</v>
       </c>
       <c r="P20" t="n">
-        <v>180.4162305416475</v>
+        <v>149.3354313770983</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.82573552186105</v>
+        <v>63.48534974092578</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.8687692932902</v>
+        <v>6.942985535316836</v>
       </c>
       <c r="K21" t="n">
-        <v>109.4848402168453</v>
+        <v>90.81093554123578</v>
       </c>
       <c r="L21" t="n">
-        <v>194.0063245512927</v>
+        <v>168.8969552119644</v>
       </c>
       <c r="M21" t="n">
-        <v>245.948622157398</v>
+        <v>216.6471724708412</v>
       </c>
       <c r="N21" t="n">
-        <v>267.0123371265215</v>
+        <v>236.9353652559462</v>
       </c>
       <c r="O21" t="n">
-        <v>221.819885802052</v>
+        <v>194.3053325538843</v>
       </c>
       <c r="P21" t="n">
-        <v>158.5016646020387</v>
+        <v>136.4188098945207</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.53073452632634</v>
+        <v>40.76893096604331</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.17297569004333</v>
+        <v>8.908950212702507</v>
       </c>
       <c r="L22" t="n">
-        <v>56.02234003769016</v>
+        <v>41.60826549493333</v>
       </c>
       <c r="M22" t="n">
-        <v>62.35889762187531</v>
+        <v>47.1612770189185</v>
       </c>
       <c r="N22" t="n">
-        <v>68.81303726990953</v>
+        <v>53.97678211653874</v>
       </c>
       <c r="O22" t="n">
-        <v>43.04170599763134</v>
+        <v>29.33802304601198</v>
       </c>
       <c r="P22" t="n">
-        <v>17.5750988679994</v>
+        <v>5.849230718504685</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>348.155628697404</v>
       </c>
       <c r="P44" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q44" t="n">
         <v>148.3119886183904</v>
